--- a/服务接口设计文档0321.xlsx
+++ b/服务接口设计文档0321.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册#" sheetId="3" r:id="rId1"/>
@@ -1015,6 +1015,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,10 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,28 +1366,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1460,12 +1460,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1535,28 +1535,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1645,12 +1645,12 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1705,28 +1705,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1765,12 +1765,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -1864,28 +1864,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1960,12 +1960,12 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -2022,28 +2022,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2070,12 +2070,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2092,10 +2092,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="15" t="s">
         <v>160</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="15" t="s">
         <v>159</v>
       </c>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="15" t="s">
         <v>157</v>
       </c>
@@ -2136,8 +2136,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="15" t="s">
         <v>114</v>
       </c>
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="11" t="s">
         <v>161</v>
       </c>
@@ -2183,28 +2183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2257,12 +2257,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2317,28 +2317,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2377,12 +2377,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2436,28 +2436,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2484,12 +2484,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2543,28 +2543,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2603,12 +2603,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2663,28 +2663,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2723,12 +2723,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2783,28 +2783,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2831,12 +2831,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2892,28 +2892,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2986,12 +2986,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3062,28 +3062,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3110,12 +3110,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3225,28 +3225,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3341,12 +3341,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -3391,7 +3391,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3402,28 +3402,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3446,12 +3446,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -3477,7 +3477,7 @@
       <c r="C8" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3509,28 +3509,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3573,12 +3573,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3604,7 +3604,7 @@
       <c r="C9" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="17" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3636,28 +3636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3696,12 +3696,12 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3757,28 +3757,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3804,7 +3804,7 @@
       <c r="C5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3818,16 +3818,16 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3872,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3885,28 +3885,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3932,7 +3932,7 @@
       <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -3958,15 +3958,15 @@
       <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -4022,28 +4022,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4072,12 +4072,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -4146,30 +4146,30 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -4218,28 +4218,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4302,12 +4302,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
